--- a/data/expt_2/raw_transcripts/game66.xlsx
+++ b/data/expt_2/raw_transcripts/game66.xlsx
@@ -1,46 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="MVI_0086.MP4.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="MVI_0086.MP4.csv" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="191">
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>trial</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>description</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="191">
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
   </si>
   <si>
     <t xml:space="preserve"> Great. All right. Now you're on camera. And if at any point you want to leave the game room, just let me know, okay?</t>
   </si>
   <si>
-    <t>R</t>
+    <t xml:space="preserve">R</t>
   </si>
   <si>
     <t xml:space="preserve"> All right. So, thank you guys for coming. Today we're going to be playing a fun matching game.</t>
@@ -52,52 +61,52 @@
     <t xml:space="preserve"> So to start, you're going to press the blue button on your screens.</t>
   </si>
   <si>
-    <t>Now you're going to touch all the bubbles on your screens that you can make them pop.</t>
-  </si>
-  <si>
-    <t>Nice.</t>
-  </si>
-  <si>
-    <t>Trying to pop this bubble.</t>
-  </si>
-  <si>
-    <t>id120</t>
-  </si>
-  <si>
-    <t>Okay.</t>
-  </si>
-  <si>
-    <t>Now I can pop those bubbles too.</t>
+    <t xml:space="preserve">Now you're going to touch all the bubbles on your screens that you can make them pop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trying to pop this bubble.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now I can pop those bubbles too.</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, let's stop a little softer.</t>
   </si>
   <si>
-    <t>Great job.</t>
+    <t xml:space="preserve">Great job.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now we're ready to explain the matching game.</t>
   </si>
   <si>
-    <t>We're not going to switch the blue buttons so I can put these here I'll explain.</t>
+    <t xml:space="preserve">We're not going to switch the blue buttons so I can put these here I'll explain.</t>
   </si>
   <si>
     <t xml:space="preserve"> So in this game, it's your job to help Smurphy.</t>
   </si>
   <si>
-    <t>This is Smurphy.</t>
-  </si>
-  <si>
-    <t>Do you want to say hi?</t>
+    <t xml:space="preserve">This is Smurphy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to say hi?</t>
   </si>
   <si>
     <t xml:space="preserve"> Hi, hi, hi.</t>
   </si>
   <si>
-    <t>id118</t>
-  </si>
-  <si>
-    <t>Great.</t>
+    <t xml:space="preserve">id118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, on your screens, you're each going to see two pictures.</t>
@@ -106,16 +115,16 @@
     <t xml:space="preserve"> For one of you, you'll have a picture inside of a black box.</t>
   </si>
   <si>
-    <t>It's Smurphy's job to guess which picture is inside of the black box and he needs your help.</t>
+    <t xml:space="preserve">It's Smurphy's job to guess which picture is inside of the black box and he needs your help.</t>
   </si>
   <si>
     <t xml:space="preserve"> So, if you have a picture with the black box, you're the teller, and it is your job to tell</t>
   </si>
   <si>
-    <t>Smurphy what you see inside of a black box.</t>
-  </si>
-  <si>
-    <t>Tell.</t>
+    <t xml:space="preserve">Smurphy what you see inside of a black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, if you don't have the black box, that means you're the guesser.</t>
@@ -127,7 +136,7 @@
     <t xml:space="preserve"> When you think you know what is being told to you, you can touch the picture you think is in the black box.</t>
   </si>
   <si>
-    <t>So the teller tells us in the black box and the guesser touches which pictures they think is in the black box to help Surrey guess.</t>
+    <t xml:space="preserve">So the teller tells us in the black box and the guesser touches which pictures they think is in the black box to help Surrey guess.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, if you get it right, you're going to get a smiley face, not mean to guess correctly,</t>
@@ -136,22 +145,22 @@
     <t xml:space="preserve"> but if you get it wrong, you'll get a frowny face.</t>
   </si>
   <si>
-    <t>But that's okay because we have a lot of tries to help Murphy guess correctly.</t>
-  </si>
-  <si>
-    <t>Okay?</t>
+    <t xml:space="preserve">But that's okay because we have a lot of tries to help Murphy guess correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay?</t>
   </si>
   <si>
     <t xml:space="preserve"> Alright, now, every time we guess, we're going to pass Smurphy.</t>
   </si>
   <si>
-    <t>We're going to take turns between the teller and the guesser.</t>
+    <t xml:space="preserve">We're going to take turns between the teller and the guesser.</t>
   </si>
   <si>
     <t xml:space="preserve"> So, if you have the black box, what are you?</t>
   </si>
   <si>
-    <t>The teller.</t>
+    <t xml:space="preserve">The teller.</t>
   </si>
   <si>
     <t xml:space="preserve"> Exactly, great.</t>
@@ -160,16 +169,16 @@
     <t xml:space="preserve"> And if you don't have it and you're holding Smurphy, what are you?</t>
   </si>
   <si>
-    <t>Guesser</t>
-  </si>
-  <si>
-    <t>Exactly.</t>
+    <t xml:space="preserve">Guesser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exactly.</t>
   </si>
   <si>
     <t xml:space="preserve"> All right, you guys got it.</t>
   </si>
   <si>
-    <t>You're ready to play.</t>
+    <t xml:space="preserve">You're ready to play.</t>
   </si>
   <si>
     <t xml:space="preserve"> So, you can just touch the blue button.</t>
@@ -178,28 +187,28 @@
     <t xml:space="preserve"> All right, now who has the block box?</t>
   </si>
   <si>
-    <t>Me.</t>
+    <t xml:space="preserve">Me.</t>
   </si>
   <si>
     <t xml:space="preserve"> [id120]'s app isn't ready, so we're just going to try to fix this.</t>
   </si>
   <si>
-    <t>Is my ready?</t>
+    <t xml:space="preserve">Is my ready?</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, yours is ready, but I don't know why.</t>
   </si>
   <si>
-    <t>I don't know why it's not working.</t>
+    <t xml:space="preserve">I don't know why it's not working.</t>
   </si>
   <si>
     <t xml:space="preserve"> Why does it have that brown, that grayed dot?</t>
   </si>
   <si>
-    <t>What was that?</t>
-  </si>
-  <si>
-    <t>Why did it have that gray thing?</t>
+    <t xml:space="preserve">What was that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why did it have that gray thing?</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, it's hard.</t>
@@ -208,61 +217,61 @@
     <t xml:space="preserve"> Sorry, my game just messed up a little bit, but I think I fixed it.</t>
   </si>
   <si>
-    <t>But thank you guys for being so patient. I really appreciate it.</t>
+    <t xml:space="preserve">But thank you guys for being so patient. I really appreciate it.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, great. So who was the black box?</t>
   </si>
   <si>
-    <t>Me!</t>
-  </si>
-  <si>
-    <t>S</t>
+    <t xml:space="preserve">Me!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
   </si>
   <si>
     <t xml:space="preserve"> That means you're the teller, and that means you're the guessers.</t>
   </si>
   <si>
-    <t>So you get to hold Smurphy and help him guess.</t>
+    <t xml:space="preserve">So you get to hold Smurphy and help him guess.</t>
   </si>
   <si>
     <t xml:space="preserve"> So [id118], do you want to tell [id120] what you see in the black box?</t>
   </si>
   <si>
-    <t>What do you say?</t>
-  </si>
-  <si>
-    <t>Do you want to tell Josiah what you see in the black box?</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To play my game, if you want to help Josiah win and you want to help Smurphy guess,</t>
-  </si>
-  <si>
-    <t>you have to say what you see in the black box.</t>
-  </si>
-  <si>
-    <t>I see a banana in the black box.</t>
-  </si>
-  <si>
-    <t>a banana</t>
+    <t xml:space="preserve">What do you say?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to tell [id120] what you see in the black box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To play my game, if you want to help [id120] win and you want to help Smurphy guess,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you have to say what you see in the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a banana in the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a banana</t>
   </si>
   <si>
     <t xml:space="preserve"> I can't help you, but if you heard that, they can't touch a Josiah.</t>
   </si>
   <si>
-    <t>I heard a dinging</t>
-  </si>
-  <si>
-    <t>L</t>
+    <t xml:space="preserve">I heard a dinging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, do you want to repeat what you said, like what you saw in the black box to [id120] so that he can guess based on what you said?</t>
   </si>
   <si>
-    <t>I see banana in the black box.</t>
+    <t xml:space="preserve">I see banana in the black box.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, so now touch your guess based on that, [id120].</t>
@@ -271,61 +280,61 @@
     <t xml:space="preserve"> Like, [id118] told you what he saw in the black box, and now you</t>
   </si>
   <si>
-    <t>try to match the picture by touching it.</t>
-  </si>
-  <si>
-    <t>Try touching again.</t>
+    <t xml:space="preserve">try to match the picture by touching it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try touching again.</t>
   </si>
   <si>
     <t xml:space="preserve"> Great, you got a smily face. That means you guess correctly.</t>
   </si>
   <si>
-    <t>Now it's your turn to tell [id118] what you see in the black box</t>
-  </si>
-  <si>
-    <t>Uh... I see a bird in the black box.</t>
-  </si>
-  <si>
-    <t>a bird</t>
+    <t xml:space="preserve">Now it's your turn to tell [id118] what you see in the black box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uh... I see a bird in the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a bird</t>
   </si>
   <si>
     <t xml:space="preserve"> Yay! Okay, you guys are helping Smurphy guess.</t>
   </si>
   <si>
-    <t>I see a boat in the black box.</t>
-  </si>
-  <si>
-    <t>A boat</t>
+    <t xml:space="preserve">I see a boat in the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A boat</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now we can pass Smurphy to [id118]</t>
   </si>
   <si>
-    <t>I see a tree in the black box. A tree</t>
-  </si>
-  <si>
-    <t>A tree</t>
-  </si>
-  <si>
-    <t>Yay!</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>I think that hard.</t>
+    <t xml:space="preserve">I see a tree in the black box. A tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think that hard.</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh wait, you don't have the black box.</t>
   </si>
   <si>
-    <t>[id118] has the black box.</t>
-  </si>
-  <si>
-    <t>Which one's that?</t>
-  </si>
-  <si>
-    <t>It's okay. Just try your best to describe what you see.</t>
+    <t xml:space="preserve">[id118] has the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which one's that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's okay. Just try your best to describe what you see.</t>
   </si>
   <si>
     <t xml:space="preserve"> It's okay, [id118], is there anything about a picture that you can tell [id120]?</t>
@@ -337,7 +346,7 @@
     <t xml:space="preserve"> Just try your best, anything, like maybe what it looks like?</t>
   </si>
   <si>
-    <t>Frowny face? Is that frowny face? What is that?</t>
+    <t xml:space="preserve">Frowny face? Is that frowny face? What is that?</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, [id118]!</t>
@@ -346,31 +355,34 @@
     <t xml:space="preserve"> It's okay [id118], just try your best.</t>
   </si>
   <si>
-    <t>Does anything about the picture stand up to you?</t>
-  </si>
-  <si>
-    <t>Look at it. It's this one</t>
+    <t xml:space="preserve">Does anything about the picture stand up to you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look at it. It's this one</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, I see.</t>
   </si>
   <si>
-    <t>But do you want to say anything about the picture?</t>
+    <t xml:space="preserve">But do you want to say anything about the picture?</t>
   </si>
   <si>
     <t xml:space="preserve"> Maybe like the shapes or anything about the picture, what it may look like,</t>
   </si>
   <si>
-    <t>to [id120].</t>
-  </si>
-  <si>
-    <t>[id120]?</t>
-  </si>
-  <si>
-    <t>What?</t>
-  </si>
-  <si>
-    <t>Did you know that this one actually has triangle feet?</t>
+    <t xml:space="preserve">to [id120].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[id120]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you know that this one actually has triangle feet?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">triangle feet</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, you can't look at it at [id120], but...</t>
@@ -379,136 +391,130 @@
     <t xml:space="preserve"> Oh, I see it.</t>
   </si>
   <si>
-    <t>This one?</t>
+    <t xml:space="preserve">This one?</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, you can't look at each other screens, but when you think you have a guess, you can just click it, [id120].</t>
   </si>
   <si>
-    <t>I don't know.</t>
-  </si>
-  <si>
-    <t>[id118], do you want to repeat what you said so that you can guess, [id120]?</t>
-  </si>
-  <si>
-    <t>[id120], it's triangle feet</t>
-  </si>
-  <si>
-    <t>triangle feet</t>
-  </si>
-  <si>
-    <t>So just pick your best guess [id120].</t>
+    <t xml:space="preserve">I don't know.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[id118], do you want to repeat what you said so that you can guess, [id120]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[id120], it's triangle feet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So just pick your best guess [id120].</t>
   </si>
   <si>
     <t xml:space="preserve"> Great, you picked it right.</t>
   </si>
   <si>
-    <t>Do you wannna say, [id118], what you see in the black box, [id10]?</t>
-  </si>
-  <si>
-    <t>I see a person with triangle feet walking.</t>
-  </si>
-  <si>
-    <t>A person with triangle feet walking</t>
-  </si>
-  <si>
-    <t>I see a person holding a sandwich in the black box.</t>
-  </si>
-  <si>
-    <t>a person holding a sandwich</t>
-  </si>
-  <si>
-    <t>Wow. You guys are helping Smurphy for you so much.</t>
-  </si>
-  <si>
-    <t>I see...</t>
-  </si>
-  <si>
-    <t>It's the same!</t>
-  </si>
-  <si>
-    <t>Uh...</t>
-  </si>
-  <si>
-    <t>Kinda looks like a boat, again</t>
-  </si>
-  <si>
-    <t>You don't click.</t>
-  </si>
-  <si>
-    <t>Nice job.</t>
-  </si>
-  <si>
-    <t>It's the same again</t>
-  </si>
-  <si>
-    <t>But do you want to tell [id120] what you see?</t>
+    <t xml:space="preserve">Do you wannna say, [id118], what you see in the black box, [id10]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a person with triangle feet walking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person with triangle feet walking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a person holding a sandwich in the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a person holding a sandwich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wow. You guys are helping Smurphy for you so much.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's the same!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uh...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinda looks like a boat, again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You don't click.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's the same again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But do you want to tell [id120] what you see?</t>
   </si>
   <si>
     <t xml:space="preserve"> It has triangle feet again, [id120].</t>
   </si>
   <si>
-    <t>has triangle feet</t>
-  </si>
-  <si>
-    <t>I think so.</t>
-  </si>
-  <si>
-    <t>I see somebody with triangle feet and holding a sandwich in their hands.</t>
-  </si>
-  <si>
-    <t>someone with triangle feet holding a sandiwch in their hands</t>
-  </si>
-  <si>
-    <t>I see a boat.</t>
-  </si>
-  <si>
-    <t>A boat with a diamon board</t>
-  </si>
-  <si>
-    <t>with a diamond board</t>
-  </si>
-  <si>
-    <t>Im the best player</t>
-  </si>
-  <si>
-    <t>Do you want to tell [id118] what you see in the black box?</t>
-  </si>
-  <si>
-    <t>A person walking with triangle feet.</t>
-  </si>
-  <si>
-    <t>A person walking with triangle feet</t>
-  </si>
-  <si>
-    <t>Oh. Thank you</t>
-  </si>
-  <si>
-    <t>I see a person with a sandwich... with a sandwich in his hand.</t>
-  </si>
-  <si>
-    <t>A person with a sandwich in his hand</t>
-  </si>
-  <si>
-    <t>I see a person walking with triangle feet in... in the box</t>
-  </si>
-  <si>
-    <t>Yay.</t>
-  </si>
-  <si>
-    <t>I see a boat with a diving board in the box.</t>
-  </si>
-  <si>
-    <t>A boat with a diving board</t>
+    <t xml:space="preserve">has triangle feet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think so.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see somebody with triangle feet and holding a sandwich in their hands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">someone with triangle feet holding a sandwich in their hands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a boat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with a diamond board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im the best player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to tell [id118] what you see in the black box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person walking with triangle feet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person walking with triangle feet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh. Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a person with a sandwich... with a sandwich in his hand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person with a sandwich in his hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a person walking with triangle feet in... in the box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a boat with a diving board in the box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A boat with a diving board</t>
   </si>
   <si>
     <t xml:space="preserve"> Great job, Guys.</t>
   </si>
   <si>
-    <t>Smurphy's so happy.</t>
-  </si>
-  <si>
-    <t>A person with triangle feet</t>
+    <t xml:space="preserve">Smurphy's so happy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person with triangle feet</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, that's okay.</t>
@@ -517,22 +523,22 @@
     <t xml:space="preserve"> Well, he, well, this one actually did have triangle feet</t>
   </si>
   <si>
-    <t>It's okay. We can just keep going.</t>
-  </si>
-  <si>
-    <t>Yeah.</t>
+    <t xml:space="preserve">It's okay. We can just keep going.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah.</t>
   </si>
   <si>
     <t xml:space="preserve"> Do you want to say what you see in the black box, [id118]?</t>
   </si>
   <si>
-    <t>Nobody wants...</t>
-  </si>
-  <si>
-    <t>to leave nobody.</t>
-  </si>
-  <si>
-    <t>I see... a person with triangle feet in the box.</t>
+    <t xml:space="preserve">Nobody wants...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to leave nobody.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see... a person with triangle feet in the box.</t>
   </si>
   <si>
     <t xml:space="preserve"> I just pressed something, but it didn't work.</t>
@@ -541,31 +547,34 @@
     <t xml:space="preserve"> Oh, you tell, you have the block box, you're telling [id120] what you see.</t>
   </si>
   <si>
-    <t>Ah.</t>
+    <t xml:space="preserve">Ah.</t>
   </si>
   <si>
     <t xml:space="preserve"> I see a boat with a triangle,</t>
   </si>
   <si>
-    <t>A boat with a triangle</t>
+    <t xml:space="preserve">A boat with a triangle</t>
   </si>
   <si>
     <t xml:space="preserve"> On its... back</t>
   </si>
   <si>
-    <t>I see a person holding a square on its nose</t>
-  </si>
-  <si>
-    <t>A person holding a square on its nose</t>
-  </si>
-  <si>
-    <t>This?</t>
+    <t xml:space="preserve">on its back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a person holding a square on its nose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person holding a square on its nose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This?</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, I can't help you, but just make your best guess.</t>
   </si>
   <si>
-    <t>I see a person with triangle feet.</t>
+    <t xml:space="preserve">I see a person with triangle feet.</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, it's okay, it's okay.</t>
@@ -574,33 +583,54 @@
     <t xml:space="preserve"> Great job guys, he finished the matching game.</t>
   </si>
   <si>
-    <t>Smurphy is so happy. He says thank you.</t>
-  </si>
-  <si>
-    <t>Alright.</t>
-  </si>
-  <si>
-    <t>Thank you guys so much for playing my game.</t>
-  </si>
-  <si>
-    <t>Now we can just play your name text back on.</t>
+    <t xml:space="preserve">Smurphy is so happy. He says thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you guys so much for playing my game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now we can just play your name text back on.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -608,32 +638,66 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -644,94 +708,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -739,33 +799,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -778,13 +829,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -794,15 +839,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -810,7 +853,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -818,11 +860,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -831,25 +873,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H171" activeCellId="0" sqref="H171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="53.88"/>
-    <col customWidth="1" min="4" max="4" width="16.63"/>
-    <col customWidth="1" min="5" max="5" width="13.13"/>
-    <col customWidth="1" min="8" max="8" width="22.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.25"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,12 +919,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6300.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>6300</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -889,12 +933,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>7180.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13600.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>13600</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -903,12 +947,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>13900.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>18120.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>13900</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>18120</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -917,12 +961,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>18560.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>21160.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>18560</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>21160</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -931,12 +975,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>23600.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>26920.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>23600</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>26920</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -945,12 +989,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>26920.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>27920.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>26920</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>27920</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -959,12 +1003,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>27920.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>29920.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>27920</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>29920</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -973,12 +1017,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>29920.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>30920.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>29920</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>30920</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -987,12 +1031,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>30920.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>42920.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>30920</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>42920</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -1001,12 +1045,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>42920.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>46920.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>42920</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>46920</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -1015,12 +1059,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>46920.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>50920.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>46920</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>50920</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -1029,12 +1073,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>50920.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>51920.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>50920</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>51920</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1043,12 +1087,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>51920.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>57920.0</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>51920</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>57920</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -1057,12 +1101,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>57920.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>61420.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>57920</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>61420</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>21</v>
@@ -1071,12 +1115,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>61420.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>65520.0</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>61420</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>65520</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>22</v>
@@ -1085,12 +1129,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>65520.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>69380.0</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>65520</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>69380</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
@@ -1099,12 +1143,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>69380.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>70220.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>69380</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>70220</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>24</v>
@@ -1113,12 +1157,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>70220.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>71220.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>70220</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>71220</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>25</v>
@@ -1127,12 +1171,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>71220.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>73020.0</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>71220</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>73020</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
@@ -1141,12 +1185,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>73020.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>74020.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>73020</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>74020</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -1155,12 +1199,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>74020.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>79220.0</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>74020</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>79220</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
@@ -1169,12 +1213,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>79220.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>81820.0</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>79220</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>81820</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
@@ -1183,12 +1227,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>81820.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>87820.0</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>81820</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>87820</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>31</v>
@@ -1197,12 +1241,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>87820.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>93820.0</v>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>87820</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>93820</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -1211,12 +1255,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>93820.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>96820.0</v>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>93820</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>96820</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>33</v>
@@ -1225,12 +1269,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>96820.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>97820.0</v>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>96820</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>97820</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
@@ -1239,12 +1283,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>97820.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>101820.0</v>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>97820</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>101820</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
@@ -1253,12 +1297,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>101820.0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>105820.0</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>101820</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>105820</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
@@ -1267,12 +1311,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>105820.0</v>
-      </c>
-      <c r="B30" s="1">
-        <v>111420.0</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>105820</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>111420</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>37</v>
@@ -1281,12 +1325,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>111420.0</v>
-      </c>
-      <c r="B31" s="1">
-        <v>117020.0</v>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>111420</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>117020</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>38</v>
@@ -1295,12 +1339,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>117660.0</v>
-      </c>
-      <c r="B32" s="1">
-        <v>122620.0</v>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>117660</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>122620</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>39</v>
@@ -1309,12 +1353,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>122620.0</v>
-      </c>
-      <c r="B33" s="1">
-        <v>125020.0</v>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>122620</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>125020</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>40</v>
@@ -1323,12 +1367,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>125020.0</v>
-      </c>
-      <c r="B34" s="1">
-        <v>128780.0</v>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>125020</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>128780</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>41</v>
@@ -1337,12 +1381,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>128780.0</v>
-      </c>
-      <c r="B35" s="1">
-        <v>129980.0</v>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>128780</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>129980</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
@@ -1351,12 +1395,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>129980.0</v>
-      </c>
-      <c r="B36" s="1">
-        <v>134500.0</v>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>129980</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>134500</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>43</v>
@@ -1365,12 +1409,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>134640.0</v>
-      </c>
-      <c r="B37" s="1">
-        <v>137860.0</v>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>134640</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>137860</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>44</v>
@@ -1379,12 +1423,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>138620.0</v>
-      </c>
-      <c r="B38" s="1">
-        <v>142120.0</v>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>138620</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>142120</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>45</v>
@@ -1393,12 +1437,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>143500.0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>144260.0</v>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>143500</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>144260</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>46</v>
@@ -1407,12 +1451,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>144720.0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>145840.0</v>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>144720</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>145840</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>47</v>
@@ -1421,12 +1465,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>146100.0</v>
-      </c>
-      <c r="B41" s="1">
-        <v>148480.0</v>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>146100</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>148480</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>48</v>
@@ -1435,12 +1479,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>148640.0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>149040.0</v>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>148640</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>149040</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>49</v>
@@ -1449,12 +1493,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>149420.0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>149900.0</v>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>149420</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>149900</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>50</v>
@@ -1463,12 +1507,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>150600.0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>152460.0</v>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>150600</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>152460</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>51</v>
@@ -1477,12 +1521,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>152500.0</v>
-      </c>
-      <c r="B45" s="1">
-        <v>153160.0</v>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>152500</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>153160</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>52</v>
@@ -1491,12 +1535,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>153800.0</v>
-      </c>
-      <c r="B46" s="1">
-        <v>156060.0</v>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>153800</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>156060</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>53</v>
@@ -1505,12 +1549,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>156060.0</v>
-      </c>
-      <c r="B47" s="1">
-        <v>161060.0</v>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>156060</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>161060</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>54</v>
@@ -1519,12 +1563,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>161060.0</v>
-      </c>
-      <c r="B48" s="1">
-        <v>162060.0</v>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>161060</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>162060</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>55</v>
@@ -1533,12 +1577,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>199060.0</v>
-      </c>
-      <c r="B49" s="1">
-        <v>206060.0</v>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>199060</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>206060</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>56</v>
@@ -1547,12 +1591,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>206060.0</v>
-      </c>
-      <c r="B50" s="1">
-        <v>208060.0</v>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>206060</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>208060</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>57</v>
@@ -1561,12 +1605,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>208060.0</v>
-      </c>
-      <c r="B51" s="1">
-        <v>210060.0</v>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>208060</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>210060</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>58</v>
@@ -1575,12 +1619,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>210060.0</v>
-      </c>
-      <c r="B52" s="1">
-        <v>212060.0</v>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>210060</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>212060</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>59</v>
@@ -1589,12 +1633,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>214060.0</v>
-      </c>
-      <c r="B53" s="1">
-        <v>219060.0</v>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>214060</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>219060</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>60</v>
@@ -1603,12 +1647,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>220060.0</v>
-      </c>
-      <c r="B54" s="1">
-        <v>221060.0</v>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>220060</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>221060</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>61</v>
@@ -1617,12 +1661,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1">
-        <v>221060.0</v>
-      </c>
-      <c r="B55" s="1">
-        <v>224060.0</v>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>221060</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>224060</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>62</v>
@@ -1631,12 +1675,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1">
-        <v>224060.0</v>
-      </c>
-      <c r="B56" s="1">
-        <v>226060.0</v>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>224060</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>226060</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>63</v>
@@ -1645,12 +1689,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>254060.0</v>
-      </c>
-      <c r="B57" s="1">
-        <v>260060.0</v>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>254060</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>260060</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>64</v>
@@ -1659,12 +1703,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1">
-        <v>264060.0</v>
-      </c>
-      <c r="B58" s="1">
-        <v>265060.0</v>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>264060</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>265060</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>17</v>
@@ -1673,12 +1717,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1">
-        <v>269060.0</v>
-      </c>
-      <c r="B59" s="1">
-        <v>272060.0</v>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>269060</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>272060</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>65</v>
@@ -1687,12 +1731,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>276060.0</v>
-      </c>
-      <c r="B60" s="1">
-        <v>279060.0</v>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>276060</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>279060</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>66</v>
@@ -1700,16 +1744,16 @@
       <c r="D60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>279060.0</v>
-      </c>
-      <c r="B61" s="1">
-        <v>280060.0</v>
+      <c r="E60" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>279060</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>280060</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>67</v>
@@ -1721,12 +1765,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>280060.0</v>
-      </c>
-      <c r="B62" s="1">
-        <v>283060.0</v>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>280060</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>283060</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>69</v>
@@ -1736,12 +1780,12 @@
       </c>
       <c r="E62" s="1"/>
     </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>283060.0</v>
-      </c>
-      <c r="B63" s="1">
-        <v>285060.0</v>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>283060</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>285060</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>70</v>
@@ -1750,12 +1794,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1">
-        <v>285060.0</v>
-      </c>
-      <c r="B64" s="1">
-        <v>289060.0</v>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>285060</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>289060</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>71</v>
@@ -1764,12 +1808,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1">
-        <v>289060.0</v>
-      </c>
-      <c r="B65" s="1">
-        <v>290060.0</v>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>289060</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>290060</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>72</v>
@@ -1778,12 +1822,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>290060.0</v>
-      </c>
-      <c r="B66" s="1">
-        <v>293060.0</v>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>290060</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>293060</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>73</v>
@@ -1792,12 +1836,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>293060.0</v>
-      </c>
-      <c r="B67" s="1">
-        <v>294060.0</v>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>293060</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>294060</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>74</v>
@@ -1809,12 +1853,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1">
-        <v>294060.0</v>
-      </c>
-      <c r="B68" s="1">
-        <v>298060.0</v>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>294060</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>298060</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>75</v>
@@ -1823,12 +1867,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1">
-        <v>298060.0</v>
-      </c>
-      <c r="B69" s="1">
-        <v>300060.0</v>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>298060</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>300060</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>76</v>
@@ -1837,12 +1881,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1">
-        <v>300060.0</v>
-      </c>
-      <c r="B70" s="1">
-        <v>308060.0</v>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>300060</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>308060</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>77</v>
@@ -1857,12 +1901,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1">
-        <v>308060.0</v>
-      </c>
-      <c r="B71" s="1">
-        <v>313060.0</v>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>308060</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>313060</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>79</v>
@@ -1871,12 +1915,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1">
-        <v>313060.0</v>
-      </c>
-      <c r="B72" s="1">
-        <v>317060.0</v>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>313060</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>317060</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>80</v>
@@ -1888,12 +1932,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1">
-        <v>317060.0</v>
-      </c>
-      <c r="B73" s="1">
-        <v>324060.0</v>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>317060</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>324060</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>82</v>
@@ -1902,12 +1946,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1">
-        <v>324060.0</v>
-      </c>
-      <c r="B74" s="1">
-        <v>328060.0</v>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>324060</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>328060</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>83</v>
@@ -1919,12 +1963,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1">
-        <v>328060.0</v>
-      </c>
-      <c r="B75" s="1">
-        <v>332060.0</v>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>328060</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>332060</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>84</v>
@@ -1933,12 +1977,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1">
-        <v>332060.0</v>
-      </c>
-      <c r="B76" s="1">
-        <v>337060.0</v>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>332060</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>337060</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>85</v>
@@ -1947,12 +1991,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1">
-        <v>337060.0</v>
-      </c>
-      <c r="B77" s="1">
-        <v>341060.0</v>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>337060</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>341060</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>86</v>
@@ -1961,12 +2005,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1">
-        <v>345060.0</v>
-      </c>
-      <c r="B78" s="1">
-        <v>348060.0</v>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>345060</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>348060</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>87</v>
@@ -1975,12 +2019,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1">
-        <v>349060.0</v>
-      </c>
-      <c r="B79" s="1">
-        <v>352060.0</v>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>349060</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>352060</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>88</v>
@@ -1988,16 +2032,16 @@
       <c r="D79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E79" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1">
-        <v>352060.0</v>
-      </c>
-      <c r="B80" s="1">
-        <v>357060.0</v>
+      <c r="E79" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>352060</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>357060</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>89</v>
@@ -2006,12 +2050,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1">
-        <v>357060.0</v>
-      </c>
-      <c r="B81" s="1">
-        <v>362060.0</v>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>357060</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>362060</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>90</v>
@@ -2026,12 +2070,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1">
-        <v>362060.0</v>
-      </c>
-      <c r="B82" s="1">
-        <v>366060.0</v>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>362060</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>366060</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>92</v>
@@ -2039,16 +2083,16 @@
       <c r="D82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1">
-        <v>366060.0</v>
-      </c>
-      <c r="B83" s="1">
-        <v>371060.0</v>
+      <c r="E82" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>366060</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>371060</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>93</v>
@@ -2063,12 +2107,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1">
-        <v>371060.0</v>
-      </c>
-      <c r="B84" s="1">
-        <v>384060.0</v>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>371060</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>384060</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>95</v>
@@ -2076,16 +2120,16 @@
       <c r="D84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E84" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1">
-        <v>384060.0</v>
-      </c>
-      <c r="B85" s="1">
-        <v>391060.0</v>
+      <c r="E84" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>384060</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>391060</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>96</v>
@@ -2100,12 +2144,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1">
-        <v>391060.0</v>
-      </c>
-      <c r="B86" s="1">
-        <v>392060.0</v>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>391060</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>392060</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>98</v>
@@ -2114,12 +2158,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1">
-        <v>392060.0</v>
-      </c>
-      <c r="B87" s="1">
-        <v>393060.0</v>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>392060</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>393060</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>98</v>
@@ -2127,16 +2171,16 @@
       <c r="D87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1">
-        <v>393060.0</v>
-      </c>
-      <c r="B88" s="1">
-        <v>398060.0</v>
+      <c r="E87" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>393060</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>398060</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>100</v>
@@ -2145,12 +2189,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1">
-        <v>398060.0</v>
-      </c>
-      <c r="B89" s="1">
-        <v>401060.0</v>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>398060</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>401060</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>101</v>
@@ -2159,12 +2203,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1">
-        <v>401060.0</v>
-      </c>
-      <c r="B90" s="1">
-        <v>403060.0</v>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>401060</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>403060</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>102</v>
@@ -2173,12 +2217,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1">
-        <v>403060.0</v>
-      </c>
-      <c r="B91" s="1">
-        <v>405060.0</v>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>403060</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>405060</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>103</v>
@@ -2190,12 +2234,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1">
-        <v>405060.0</v>
-      </c>
-      <c r="B92" s="1">
-        <v>409060.0</v>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>405060</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>409060</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>104</v>
@@ -2204,12 +2248,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1">
-        <v>409060.0</v>
-      </c>
-      <c r="B93" s="1">
-        <v>416060.0</v>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>409060</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>416060</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>105</v>
@@ -2218,12 +2262,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1">
-        <v>416060.0</v>
-      </c>
-      <c r="B94" s="1">
-        <v>417060.0</v>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>416060</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>417060</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>106</v>
@@ -2232,12 +2276,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1">
-        <v>417060.0</v>
-      </c>
-      <c r="B95" s="1">
-        <v>434060.0</v>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>417060</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>434060</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>107</v>
@@ -2246,12 +2290,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1">
-        <v>434060.0</v>
-      </c>
-      <c r="B96" s="1">
-        <v>441060.0</v>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>434060</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>441060</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>108</v>
@@ -2264,12 +2308,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1">
-        <v>441060.0</v>
-      </c>
-      <c r="B97" s="1">
-        <v>444060.0</v>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>441060</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>444060</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>109</v>
@@ -2282,12 +2326,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>444060.0</v>
-      </c>
-      <c r="B98" s="1">
-        <v>446060.0</v>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>444060</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>446060</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>110</v>
@@ -2296,12 +2340,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1">
-        <v>446060.0</v>
-      </c>
-      <c r="B99" s="1">
-        <v>450060.0</v>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>446060</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>450060</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>111</v>
@@ -2310,12 +2354,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1">
-        <v>450060.0</v>
-      </c>
-      <c r="B100" s="1">
-        <v>452060.0</v>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>450060</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>452060</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>112</v>
@@ -2327,12 +2371,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1">
-        <v>452060.0</v>
-      </c>
-      <c r="B101" s="1">
-        <v>454060.0</v>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>452060</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>454060</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>113</v>
@@ -2341,12 +2385,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1">
-        <v>454060.0</v>
-      </c>
-      <c r="B102" s="1">
-        <v>456060.0</v>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>454060</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>456060</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>114</v>
@@ -2355,12 +2399,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1">
-        <v>456060.0</v>
-      </c>
-      <c r="B103" s="1">
-        <v>461060.0</v>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>456060</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>461060</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>115</v>
@@ -2369,12 +2413,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1">
-        <v>461060.0</v>
-      </c>
-      <c r="B104" s="1">
-        <v>463060.0</v>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>461060</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>463060</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>116</v>
@@ -2383,12 +2427,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1">
-        <v>463060.0</v>
-      </c>
-      <c r="B105" s="1">
-        <v>465060.0</v>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>463060</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>465060</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>117</v>
@@ -2400,12 +2444,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1">
-        <v>465060.0</v>
-      </c>
-      <c r="B106" s="1">
-        <v>467060.0</v>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>465060</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>467060</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>118</v>
@@ -2417,12 +2461,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1">
-        <v>467060.0</v>
-      </c>
-      <c r="B107" s="1">
-        <v>472060.0</v>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>467060</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>472060</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>119</v>
@@ -2433,30 +2477,33 @@
       <c r="F107" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1">
-        <v>472060.0</v>
-      </c>
-      <c r="B108" s="1">
-        <v>475060.0</v>
+      <c r="H107" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>472060</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>475060</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1">
-        <v>475060.0</v>
-      </c>
-      <c r="B109" s="1">
-        <v>478060.0</v>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>475060</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>478060</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>16</v>
@@ -2465,15 +2512,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1">
-        <v>478060.0</v>
-      </c>
-      <c r="B110" s="1">
-        <v>481060.0</v>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>478060</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>481060</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>16</v>
@@ -2482,29 +2529,29 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1">
-        <v>481060.0</v>
-      </c>
-      <c r="B111" s="1">
-        <v>487060.0</v>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>481060</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>487060</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1">
-        <v>487060.0</v>
-      </c>
-      <c r="B112" s="1">
-        <v>490060.0</v>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>487060</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>490060</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>16</v>
@@ -2513,29 +2560,29 @@
         <v>81</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1">
-        <v>490060.0</v>
-      </c>
-      <c r="B113" s="1">
-        <v>497060.0</v>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>490060</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>497060</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1">
-        <v>497060.0</v>
-      </c>
-      <c r="B114" s="1">
-        <v>500060.0</v>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>497060</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>500060</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>27</v>
@@ -2543,16 +2590,14 @@
       <c r="F114" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1">
-        <v>500060.0</v>
-      </c>
-      <c r="B115" s="1">
-        <v>504060.0</v>
+      <c r="H114" s="1"/>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>500060</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>504060</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>128</v>
@@ -2561,12 +2606,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1">
-        <v>504060.0</v>
-      </c>
-      <c r="B116" s="1">
-        <v>507060.0</v>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>504060</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>507060</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>129</v>
@@ -2574,16 +2619,16 @@
       <c r="D116" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E116" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1">
-        <v>507060.0</v>
-      </c>
-      <c r="B117" s="1">
-        <v>519060.0</v>
+      <c r="E116" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>507060</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>519060</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>130</v>
@@ -2592,12 +2637,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1">
-        <v>519060.0</v>
-      </c>
-      <c r="B118" s="1">
-        <v>526060.0</v>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>519060</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>526060</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>131</v>
@@ -2612,12 +2657,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1">
-        <v>526060.0</v>
-      </c>
-      <c r="B119" s="1">
-        <v>529060.0</v>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>526060</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>529060</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>28</v>
@@ -2625,16 +2670,16 @@
       <c r="D119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E119" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1">
-        <v>529060.0</v>
-      </c>
-      <c r="B120" s="1">
-        <v>540060.0</v>
+      <c r="E119" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>529060</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>540060</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>133</v>
@@ -2650,12 +2695,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1">
-        <v>540060.0</v>
-      </c>
-      <c r="B121" s="1">
-        <v>545060.0</v>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>540060</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>545060</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>135</v>
@@ -2663,16 +2708,16 @@
       <c r="D121" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E121" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1">
-        <v>552060.0</v>
-      </c>
-      <c r="B122" s="1">
-        <v>553060.0</v>
+      <c r="E121" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>552060</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>553060</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>136</v>
@@ -2684,12 +2729,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1">
-        <v>553060.0</v>
-      </c>
-      <c r="B123" s="1">
-        <v>555060.0</v>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>553060</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>555060</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>137</v>
@@ -2701,12 +2746,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1">
-        <v>555060.0</v>
-      </c>
-      <c r="B124" s="1">
-        <v>556060.0</v>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>555060</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>556060</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>136</v>
@@ -2718,12 +2763,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1">
-        <v>556060.0</v>
-      </c>
-      <c r="B125" s="1">
-        <v>559060.0</v>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>556060</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>559060</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>138</v>
@@ -2735,12 +2780,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1">
-        <v>559060.0</v>
-      </c>
-      <c r="B126" s="1">
-        <v>562060.0</v>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>559060</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>562060</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>139</v>
@@ -2755,12 +2800,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1">
-        <v>562060.0</v>
-      </c>
-      <c r="B127" s="1">
-        <v>566060.0</v>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>562060</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>566060</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>140</v>
@@ -2769,12 +2814,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1">
-        <v>566060.0</v>
-      </c>
-      <c r="B128" s="1">
-        <v>567060.0</v>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>566060</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>567060</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>17</v>
@@ -2782,16 +2827,16 @@
       <c r="D128" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E128" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1">
-        <v>567060.0</v>
-      </c>
-      <c r="B129" s="1">
-        <v>568060.0</v>
+      <c r="E128" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>567060</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>568060</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>141</v>
@@ -2800,12 +2845,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1">
-        <v>568060.0</v>
-      </c>
-      <c r="B130" s="1">
-        <v>571060.0</v>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>568060</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>571060</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>142</v>
@@ -2817,12 +2862,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1">
-        <v>568060.0</v>
-      </c>
-      <c r="B131" s="1">
-        <v>571060.0</v>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>568060</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>571060</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>143</v>
@@ -2831,12 +2876,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1">
-        <v>571060.0</v>
-      </c>
-      <c r="B132" s="1">
-        <v>574060.0</v>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>571060</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>574060</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>144</v>
@@ -2851,15 +2896,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1">
-        <v>574060.0</v>
-      </c>
-      <c r="B133" s="1">
-        <v>575060.0</v>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>574060</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>575060</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>16</v>
@@ -2868,12 +2913,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1">
-        <v>575060.0</v>
-      </c>
-      <c r="B134" s="1">
-        <v>577060.0</v>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>575060</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>577060</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>146</v>
@@ -2885,12 +2930,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1">
-        <v>577060.0</v>
-      </c>
-      <c r="B135" s="1">
-        <v>579060.0</v>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>577060</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>579060</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>98</v>
@@ -2898,16 +2943,16 @@
       <c r="D135" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E135" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1">
-        <v>583060.0</v>
-      </c>
-      <c r="B136" s="1">
-        <v>590060.0</v>
+      <c r="E135" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>583060</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>590060</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>147</v>
@@ -2922,12 +2967,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1">
-        <v>590060.0</v>
-      </c>
-      <c r="B137" s="1">
-        <v>592060.0</v>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>590060</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>592060</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>98</v>
@@ -2935,16 +2980,16 @@
       <c r="D137" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E137" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1">
-        <v>592060.0</v>
-      </c>
-      <c r="B138" s="1">
-        <v>597060.0</v>
+      <c r="E137" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>592060</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>597060</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>149</v>
@@ -2956,18 +3001,18 @@
         <v>68</v>
       </c>
       <c r="H138" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>597060</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>604060</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1">
-        <v>597060.0</v>
-      </c>
-      <c r="B139" s="1">
-        <v>604060.0</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>27</v>
@@ -2975,13 +3020,16 @@
       <c r="F139" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1">
-        <v>604060.0</v>
-      </c>
-      <c r="B140" s="1">
-        <v>605060.0</v>
+      <c r="H139" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>604060</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>605060</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>98</v>
@@ -2989,19 +3037,19 @@
       <c r="D140" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E140" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1">
-        <v>605060.0</v>
-      </c>
-      <c r="B141" s="1">
-        <v>608060.0</v>
+      <c r="E140" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>605060</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>608060</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>16</v>
@@ -3010,12 +3058,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1">
-        <v>608060.0</v>
-      </c>
-      <c r="B142" s="1">
-        <v>611060.0</v>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>608060</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>611060</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>118</v>
@@ -3027,29 +3075,29 @@
         <v>68</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1">
-        <v>611060.0</v>
-      </c>
-      <c r="B143" s="1">
-        <v>617060.0</v>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>611060</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>617060</v>
       </c>
       <c r="C143" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>617060</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>622060</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1">
-        <v>617060.0</v>
-      </c>
-      <c r="B144" s="1">
-        <v>622060.0</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>16</v>
@@ -3058,15 +3106,15 @@
         <v>68</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1">
-        <v>622060.0</v>
-      </c>
-      <c r="B145" s="1">
-        <v>624060.0</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>622060</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>624060</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>118</v>
@@ -3078,12 +3126,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1">
-        <v>624060.0</v>
-      </c>
-      <c r="B146" s="1">
-        <v>626060.0</v>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>624060</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>626060</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>14</v>
@@ -3091,33 +3139,33 @@
       <c r="D146" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E146" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1">
-        <v>626060.0</v>
-      </c>
-      <c r="B147" s="1">
-        <v>627060.0</v>
+      <c r="E146" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>626060</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>627060</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>627060</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>643060</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1">
-        <v>627060.0</v>
-      </c>
-      <c r="B148" s="1">
-        <v>643060.0</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>27</v>
@@ -3126,15 +3174,15 @@
         <v>68</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1">
-        <v>643060.0</v>
-      </c>
-      <c r="B149" s="1">
-        <v>645060.0</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>643060</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>645060</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>14</v>
@@ -3142,19 +3190,19 @@
       <c r="D149" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E149" s="1">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1">
-        <v>645060.0</v>
-      </c>
-      <c r="B150" s="1">
-        <v>652060.0</v>
+      <c r="E149" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>645060</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>652060</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>16</v>
@@ -3163,35 +3211,35 @@
         <v>68</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1">
-        <v>655060.0</v>
-      </c>
-      <c r="B151" s="1">
-        <v>656060.0</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>655060</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>656060</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>656060</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>669060</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151" s="1">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1">
-        <v>656060.0</v>
-      </c>
-      <c r="B152" s="1">
-        <v>669060.0</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>27</v>
@@ -3200,46 +3248,46 @@
         <v>68</v>
       </c>
       <c r="H152" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>669060</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>674060</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1">
-        <v>669060.0</v>
-      </c>
-      <c r="B153" s="1">
-        <v>674060.0</v>
-      </c>
-      <c r="C153" s="1" t="s">
+      <c r="D153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>674060</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>677060</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E153" s="1">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1">
-        <v>674060.0</v>
-      </c>
-      <c r="B154" s="1">
-        <v>677060.0</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="D154" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1">
-        <v>677060.0</v>
-      </c>
-      <c r="B155" s="1">
-        <v>679060.0</v>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>677060</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>679060</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>136</v>
@@ -3251,15 +3299,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1">
-        <v>679060.0</v>
-      </c>
-      <c r="B156" s="1">
-        <v>686060.0</v>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>679060</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>686060</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>16</v>
@@ -3268,35 +3316,35 @@
         <v>68</v>
       </c>
       <c r="H156" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>686060</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>691060</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1">
-        <v>686060.0</v>
-      </c>
-      <c r="B157" s="1">
-        <v>691060.0</v>
-      </c>
-      <c r="C157" s="1" t="s">
+      <c r="D157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>691060</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>697060</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157" s="1">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1">
-        <v>691060.0</v>
-      </c>
-      <c r="B158" s="1">
-        <v>697060.0</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>27</v>
@@ -3305,57 +3353,57 @@
         <v>81</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1">
-        <v>697060.0</v>
-      </c>
-      <c r="B159" s="1">
-        <v>700060.0</v>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>697060</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>700060</v>
       </c>
       <c r="C159" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>700060</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>702060</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1">
-        <v>700060.0</v>
-      </c>
-      <c r="B160" s="1">
-        <v>702060.0</v>
-      </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>702060</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>706060</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1">
-        <v>702060.0</v>
-      </c>
-      <c r="B161" s="1">
-        <v>706060.0</v>
-      </c>
-      <c r="C161" s="1" t="s">
+      <c r="D161" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>707060</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>708060</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1">
-        <v>707060.0</v>
-      </c>
-      <c r="B162" s="1">
-        <v>708060.0</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>16</v>
@@ -3364,15 +3412,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1">
-        <v>708060.0</v>
-      </c>
-      <c r="B163" s="1">
-        <v>709060.0</v>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>708060</v>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>709060</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>16</v>
@@ -3381,15 +3429,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1">
-        <v>709060.0</v>
-      </c>
-      <c r="B164" s="1">
-        <v>711060.0</v>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>709060</v>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>711060</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>16</v>
@@ -3398,15 +3446,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1">
-        <v>711060.0</v>
-      </c>
-      <c r="B165" s="1">
-        <v>716060.0</v>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>711060</v>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>716060</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>27</v>
@@ -3415,49 +3463,49 @@
         <v>68</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1">
-        <v>720060.0</v>
-      </c>
-      <c r="B166" s="1">
-        <v>726060.0</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>720060</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>726060</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E166" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1">
-        <v>726060.0</v>
-      </c>
-      <c r="B167" s="1">
-        <v>730060.0</v>
+      <c r="E166" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>726060</v>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>730060</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>730060</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>731060</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1">
-        <v>730060.0</v>
-      </c>
-      <c r="B168" s="1">
-        <v>731060.0</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>16</v>
@@ -3466,15 +3514,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1">
-        <v>731060.0</v>
-      </c>
-      <c r="B169" s="1">
-        <v>738060.0</v>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>731060</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>738060</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>16</v>
@@ -3483,18 +3531,18 @@
         <v>68</v>
       </c>
       <c r="H169" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>738060</v>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>741060</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1">
-        <v>738060.0</v>
-      </c>
-      <c r="B170" s="1">
-        <v>741060.0</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>16</v>
@@ -3502,30 +3550,33 @@
       <c r="F170" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1">
-        <v>741060.0</v>
-      </c>
-      <c r="B171" s="1">
-        <v>745060.0</v>
+      <c r="H170" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>741060</v>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>745060</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E171" s="1">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1">
-        <v>745060.0</v>
-      </c>
-      <c r="B172" s="1">
-        <v>755060.0</v>
+      <c r="E171" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>745060</v>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>755060</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>180</v>
@@ -3540,12 +3591,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1">
-        <v>755060.0</v>
-      </c>
-      <c r="B173" s="1">
-        <v>757060.0</v>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>755060</v>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>757060</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>182</v>
@@ -3557,12 +3608,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1">
-        <v>757060.0</v>
-      </c>
-      <c r="B174" s="1">
-        <v>759060.0</v>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>757060</v>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>759060</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>182</v>
@@ -3574,12 +3625,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1">
-        <v>759060.0</v>
-      </c>
-      <c r="B175" s="1">
-        <v>763060.0</v>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>759060</v>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>763060</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>183</v>
@@ -3588,12 +3639,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1">
-        <v>763060.0</v>
-      </c>
-      <c r="B176" s="1">
-        <v>765060.0</v>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>763060</v>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>765060</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>14</v>
@@ -3601,16 +3652,16 @@
       <c r="D176" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E176" s="1">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1">
-        <v>765060.0</v>
-      </c>
-      <c r="B177" s="1">
-        <v>772060.0</v>
+      <c r="E176" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>765060</v>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>772060</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>184</v>
@@ -3622,15 +3673,15 @@
         <v>68</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1">
-        <v>772060.0</v>
-      </c>
-      <c r="B178" s="1">
-        <v>778060.0</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>772060</v>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>778060</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>185</v>
@@ -3639,12 +3690,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1">
-        <v>778060.0</v>
-      </c>
-      <c r="B179" s="1">
-        <v>781060.0</v>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>778060</v>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>781060</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>186</v>
@@ -3653,12 +3704,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1">
-        <v>781060.0</v>
-      </c>
-      <c r="B180" s="1">
-        <v>784060.0</v>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>781060</v>
+      </c>
+      <c r="B180" s="1" t="n">
+        <v>784060</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>187</v>
@@ -3667,12 +3718,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1">
-        <v>784060.0</v>
-      </c>
-      <c r="B181" s="1">
-        <v>785060.0</v>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>784060</v>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>785060</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>188</v>
@@ -3681,12 +3732,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1">
-        <v>785060.0</v>
-      </c>
-      <c r="B182" s="1">
-        <v>789060.0</v>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>785060</v>
+      </c>
+      <c r="B182" s="1" t="n">
+        <v>789060</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>189</v>
@@ -3695,12 +3746,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1">
-        <v>789060.0</v>
-      </c>
-      <c r="B183" s="1">
-        <v>792060.0</v>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>789060</v>
+      </c>
+      <c r="B183" s="1" t="n">
+        <v>792060</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>190</v>
@@ -3710,6 +3761,12 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/expt_2/raw_transcripts/game66.xlsx
+++ b/data/expt_2/raw_transcripts/game66.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="193">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -694,11 +694,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -894,9 +894,9 @@
   <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I185" activeCellId="0" sqref="I185"/>
+      <selection pane="bottomLeft" activeCell="F66" activeCellId="0" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1838,6 +1838,9 @@
       <c r="D65" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F65" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
@@ -2220,6 +2223,9 @@
       <c r="D88" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F88" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="I88" s="3" t="s">
         <v>80</v>
       </c>
@@ -2521,7 +2527,7 @@
       <c r="F107" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H107" s="4" t="s">
+      <c r="H107" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I107" s="3" t="s">
@@ -3118,7 +3124,7 @@
       <c r="F139" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H139" s="4" t="s">
+      <c r="H139" s="3" t="s">
         <v>152</v>
       </c>
       <c r="I139" s="3" t="s">
@@ -3610,6 +3616,9 @@
       <c r="E166" s="2" t="n">
         <v>17</v>
       </c>
+      <c r="F166" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="n">
@@ -3684,7 +3693,7 @@
       <c r="F170" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H170" s="4" t="s">
+      <c r="H170" s="3" t="s">
         <v>181</v>
       </c>
       <c r="I170" s="3" t="s">
